--- a/biology/Histoire de la zoologie et de la botanique/John_Freeman_Milward_Dovaston/John_Freeman_Milward_Dovaston.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Freeman_Milward_Dovaston/John_Freeman_Milward_Dovaston.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Freeman Milward Dovaston est un poète et un naturaliste britannique, né le 30 décembre 1782 à Twyford, Shropshire et mort le 8 août 1854.
 Il fait des études de droit et est admis au barreau en 1807 après avoir obtenu un Master of Arts. L’héritage qu’il reçoit après la mort de son père l’année suivante, lui permet d’abandonner la pratique du droit et de se consacrer à ses passions. Il écrit de nombreuses poésies et mais sa grande passion sont les oiseaux. Il refuse d’utiliser un fusil pour les étudier. Il se lie d’amitié avec Thomas Bewick (1753-1828).
@@ -513,7 +525,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Biographie
 David McFarland (dir.) (1990). Dictionnaire du comportement animal, Robert Laffont (Paris), collection Bouquins : vi + 1013 p.  (ISBN 2-221-05281-1)</t>
